--- a/tests/data/input/一级测试用例-24001.xlsx
+++ b/tests/data/input/一级测试用例-24001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="160">
   <si>
     <t>用例编号</t>
   </si>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_state[0]='*失效*'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_mor_detail=0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,10 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_state[0]='*有效*'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_mor_detail=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,10 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_state[0]='****'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_liquidation</t>
   </si>
   <si>
@@ -437,10 +425,6 @@
     <t>com_bus_saicChanLegal_5y</t>
   </si>
   <si>
-    <t>info_com_bus_basic.id; info_com_bus_basic.create_time[0]='2019-07-10'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_alter.basic_id;   info_com_bus_alter.alt_date[0]='2016-05-03'; info_com_bus_alter.alt_item[0]='法定代表人'; info_com_bus_alter.alt_date[1]='2018-05-03'; info_com_bus_alter.alt_item[1]='法定代表人'; info_com_bus_alter.alt_date[2]='2019-05-03'; info_com_bus_alter.alt_item[2]='法定代表人'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,11 +459,6 @@
   </si>
   <si>
     <t>com_bus_saicAffiliated=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">info_com_bus_basic.id;  info_com_bus_basic.ent_name[0]='小胖熊010'
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -526,15 +505,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_shareholder.basic_id; info_com_bus_shareholder.share_holder_name[0]='张三'; info_com_bus_shareholder.share_holder_name[0]='李四'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_leg_not_shh=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_com_bus_shareholder.basic_id; info_com_bus_shareholder.share_holder_name[0]='张无'; info_com_bus_shareholder.share_holder_name[0]='李四'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -620,15 +591,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_frinv.basic_id;  info_com_bus_frinv.funded_ratio[0]=0.1; info_com_bus_frinv.ent_name[0]='小胖熊010'; info_com_bus_frinv.funded_ratio[0]=0.5; info_com_bus_frinv.ent_name[0]='小胖熊011'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_legper_outwardCount1=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_com_bus_frinv.basic_id;  info_com_bus_frinv.funded_ratio[0]=0.2; info_com_bus_frinv.ent_name[0]='小胖熊010'; info_com_bus_frinv.funded_ratio[0]=0.5; info_com_bus_frinv.ent_name[0]='小胖熊013'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -650,11 +613,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>info_com_bus_exception.basic_id; info_com_bus_exception.result_out[0]=None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_com_bus_illegal.basic_id; info_com_bus_illegal.illegal_rresult_out[0]=None</t>
+    <t>info_com_bus_exception.basic_id; info_com_bus_exception.result_out[0]=''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_status[0]='*失效*'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_status[0]='*有效*'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_mort_basic.basic_id; info_com_bus_mort_basic.mort_status[0]='****'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_illegal.basic_id; info_com_bus_illegal.illegal_rresult_out[0]=''</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id; info_com_bus_basic.create_time='2019-07-10'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_shareholder.basic_id; info_com_bus_shareholder.share_holder_name[0]='张三'; info_com_bus_shareholder.share_holder_name[1]='李四'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_shareholder.basic_id; info_com_bus_shareholder.share_holder_name[0]='张无'; info_com_bus_shareholder.share_holder_name[1]='李四'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_frinv.basic_id;  info_com_bus_frinv.funded_ratio[0]=0.1; info_com_bus_frinv.ent_name[0]='小胖熊010'; info_com_bus_frinv.funded_ratio[1]=0.5; info_com_bus_frinv.ent_name[1]='小胖熊011'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_frinv.basic_id; info_com_bus_frinv.funded_ratio[0]=0.2; info_com_bus_frinv.ent_name[0]='小胖熊010'; info_com_bus_frinv.funded_ratio[1]=0.5; info_com_bus_frinv.ent_name[1]='小胖熊013'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1100,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1167,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1193,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1219,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1243,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1268,10 +1263,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1287,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -1299,7 +1294,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1325,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1349,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1375,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1401,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1427,7 +1422,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1453,7 +1448,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1472,14 +1467,14 @@
         <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1505,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1531,7 +1526,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1557,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1576,14 +1571,14 @@
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1602,14 +1597,14 @@
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1622,20 +1617,20 @@
         <v>24001</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1648,20 +1643,20 @@
         <v>24001</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1674,20 +1669,20 @@
         <v>24001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1700,7 +1695,7 @@
         <v>24001</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>27</v>
@@ -1708,10 +1703,10 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1724,20 +1719,20 @@
         <v>24001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1750,20 +1745,20 @@
         <v>24001</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1776,7 +1771,7 @@
         <v>24001</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>27</v>
@@ -1784,10 +1779,10 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1800,20 +1795,20 @@
         <v>24001</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1826,7 +1821,7 @@
         <v>24001</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>27</v>
@@ -1834,10 +1829,10 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1850,20 +1845,20 @@
         <v>24001</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1876,20 +1871,20 @@
         <v>24001</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1902,7 +1897,7 @@
         <v>24001</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>27</v>
@@ -1910,10 +1905,10 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1926,20 +1921,20 @@
         <v>24001</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1952,20 +1947,20 @@
         <v>24001</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1978,7 +1973,7 @@
         <v>24001</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>27</v>
@@ -1986,10 +1981,10 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2002,20 +1997,20 @@
         <v>24001</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2028,20 +2023,20 @@
         <v>24001</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2054,20 +2049,20 @@
         <v>24001</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2080,20 +2075,20 @@
         <v>24001</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2106,7 +2101,7 @@
         <v>24001</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>27</v>
@@ -2114,10 +2109,10 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2130,20 +2125,20 @@
         <v>24001</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2156,7 +2151,7 @@
         <v>24001</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>27</v>
@@ -2164,10 +2159,10 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2180,20 +2175,20 @@
         <v>24001</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2206,7 +2201,7 @@
         <v>24001</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>27</v>
@@ -2214,10 +2209,10 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2230,20 +2225,20 @@
         <v>24001</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2256,7 +2251,7 @@
         <v>24001</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>27</v>
@@ -2264,10 +2259,10 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2280,20 +2275,20 @@
         <v>24001</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2306,7 +2301,7 @@
         <v>24001</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>27</v>
@@ -2314,10 +2309,10 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2330,20 +2325,20 @@
         <v>24001</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2356,20 +2351,20 @@
         <v>24001</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2382,20 +2377,20 @@
         <v>24001</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2408,22 +2403,22 @@
         <v>24001</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2436,20 +2431,20 @@
         <v>24001</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -2462,7 +2457,7 @@
         <v>24001</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>27</v>
@@ -2470,10 +2465,10 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -2486,20 +2481,20 @@
         <v>24001</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -2512,7 +2507,7 @@
         <v>24001</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>27</v>
@@ -2520,10 +2515,10 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -2536,22 +2531,22 @@
         <v>24001</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -2564,22 +2559,22 @@
         <v>24001</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -2592,20 +2587,20 @@
         <v>24001</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -2618,20 +2613,20 @@
         <v>24001</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2644,20 +2639,20 @@
         <v>24001</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -2670,7 +2665,7 @@
         <v>24001</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>27</v>
@@ -2678,10 +2673,10 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -2694,22 +2689,22 @@
         <v>24001</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -2722,22 +2717,22 @@
         <v>24001</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -2750,22 +2745,22 @@
         <v>24001</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -2778,22 +2773,22 @@
         <v>24001</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -2806,22 +2801,22 @@
         <v>24001</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>

--- a/tests/data/input/一级测试用例-24001.xlsx
+++ b/tests/data/input/一级测试用例-24001.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="168">
   <si>
     <t>用例编号</t>
   </si>
@@ -671,6 +671,21 @@
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.fr_name[0]='小胖熊001';
 info_com_bus_frinv.ent_status[0]='吊销'; info_com_bus_frinv.ent_name[0]='小胖熊033'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_bus_industryphyname</t>
+  </si>
+  <si>
+    <t>info_com_bus_face.basic_id; info_com_bus_face.com_bus_industryphyname[0]='建筑业'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_bus_industryphyname=建筑业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_bus_industryphyname=None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2842,6 +2857,56 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
+    <row r="67" spans="1:10" ht="27">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>24001</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="27">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>24001</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="2" type="noConversion"/>
